--- a/Income/EQR_inc.xlsx
+++ b/Income/EQR_inc.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1565196100.0</v>
+        <v>1565220100.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1655320100.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1722415900.0</v>
+        <v>1722391900.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1789184900.0</v>
+        <v>1789160900.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1803848900.0</v>
+        <v>1803824900.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1792362900.0</v>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1031440900.0</v>
+        <v>1031464900.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1317989900.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1370143900.0</v>
+        <v>1370119900.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1556071900.0</v>
+        <v>1556047900.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1568299900.0</v>
+        <v>1568275900.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1356159900.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-370796000.0</v>
+        <v>-370820000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>-385587000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-368410000.0</v>
+        <v>-368386000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-372847000.0</v>
+        <v>-372823000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-405182000.0</v>
+        <v>-405158000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-416722000.0</v>
@@ -2099,7 +2099,7 @@
         <v>0.663</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.6636</v>
+        <v>0.6637</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.6625</v>
@@ -2220,13 +2220,13 @@
         <v>0.5209</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>0.5766</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>0.5765</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>0.5764</v>
-      </c>
       <c r="G17" s="0" t="n">
-        <v>0.5021</v>
+        <v>0.5022</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4369</v>
@@ -2353,7 +2353,7 @@
         <v>0.4275</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.3478</v>
+        <v>0.3479</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.286</v>
@@ -2477,10 +2477,10 @@
         <v>0.4162</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.4305</v>
+        <v>0.4306</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.3581</v>
+        <v>0.3582</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2978</v>
@@ -2598,16 +2598,16 @@
         <v>0.7561</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.6524</v>
+        <v>0.6532</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.5848</v>
+        <v>0.5857</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.4562</v>
+        <v>0.457</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2301</v>
+        <v>0.2309</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.2171</v>
@@ -2718,22 +2718,20 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>1897498000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2199678000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2253069000.0</v>
+        <v>2253045000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2441712100.0</v>
+        <v>2441688100.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2463898000.0</v>
+        <v>2463874000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2243562000.0</v>
@@ -2848,19 +2846,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1031440900.0</v>
+        <v>1031464900.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1317989900.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1370143900.0</v>
+        <v>1370119900.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1556071900.0</v>
+        <v>1556047900.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1568299900.0</v>
+        <v>1568275900.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1356159900.0</v>
@@ -4099,13 +4097,13 @@
         <v>0.8592</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.8565</v>
+        <v>0.8566</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.9046</v>
+        <v>0.9047</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.9056</v>
+        <v>0.9057</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0.8307</v>
@@ -4226,16 +4224,16 @@
         <v>0.491</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.5313</v>
+        <v>0.5322</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.5188</v>
+        <v>0.5197</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.5373</v>
+        <v>0.5381</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.5387</v>
+        <v>0.5395</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.5269</v>
